--- a/LakeAnnie/StagingData/Annie_sed_accuml_Quillen.xlsx
+++ b/LakeAnnie/StagingData/Annie_sed_accuml_Quillen.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,6 +757,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
